--- a/project management/HDFS-NVMM-schedule.xlsx
+++ b/project management/HDFS-NVMM-schedule.xlsx
@@ -533,7 +533,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
